--- a/Excel Data/CDRStatus.xlsx
+++ b/Excel Data/CDRStatus.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CDRStatus" sheetId="1" r:id="rId1"/>
+    <sheet name="Old" sheetId="2" r:id="rId1"/>
+    <sheet name="CDRStatus" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,25 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>value:1:1:1</t>
   </si>
   <si>
     <t>CDR.LDA0610547</t>
   </si>
+  <si>
+    <t>CDR.CLK0601316</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +358,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -365,7 +413,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
